--- a/experiment1.xlsx
+++ b/experiment1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>avg</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>Δ%</t>
+  </si>
+  <si>
+    <t>Voltage Δ</t>
+  </si>
+  <si>
+    <t>Δread = 0.01</t>
+  </si>
+  <si>
+    <t>Δcal = 0.8% 
++ 3 of the 
+least sig figs
+= 0.07 (0.04+ 0.03)</t>
+  </si>
+  <si>
+    <t>Δtotal = 0.071</t>
+  </si>
+  <si>
+    <t>Reactance</t>
   </si>
 </sst>
 </file>
@@ -149,6 +167,1034 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91780000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1506000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5291999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A54-4851-8D85-DE21BF801856}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382128328"/>
+        <c:axId val="382128000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382128328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequency (KHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382128000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382128000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382128328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>557211</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,27 +1460,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -474,8 +1521,11 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.5</v>
       </c>
@@ -498,11 +1548,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="H3">
-        <f>((C3+D3+E3+F3+G3)/5)</f>
+        <f t="shared" ref="H3:H9" si="0">((C3+D3+E3+F3+G3)/5)</f>
         <v>0.44400000000000006</v>
       </c>
       <c r="I3">
-        <f>((H3/100) * 5)</f>
+        <f t="shared" ref="I3:I9" si="1">((H3/100) * 5)</f>
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="J3">
@@ -512,8 +1562,20 @@
         <f>((G3-C3)/5)</f>
         <v>6.0000000000000049E-4</v>
       </c>
+      <c r="L3">
+        <f>(((I3^2)+(J3^2)+(K3^2))^0.5)</f>
+        <v>2.2230609528305786E-2</v>
+      </c>
+      <c r="M3">
+        <f>((L3/H3)*100)</f>
+        <v>5.006894037906708</v>
+      </c>
+      <c r="O3">
+        <f>((A3*10^3)*PI())</f>
+        <v>14137.16694115407</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -536,11 +1598,11 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="H4">
-        <f>((C4+D4+E4+F4+G4)/5)</f>
+        <f t="shared" si="0"/>
         <v>0.52559999999999996</v>
       </c>
       <c r="I4">
-        <f>((H4/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>2.6279999999999998E-2</v>
       </c>
       <c r="J4">
@@ -550,8 +1612,16 @@
         <f>((C4-F4)/5)</f>
         <v>4.0000000000000034E-4</v>
       </c>
+      <c r="L4">
+        <f>(((I4^2)+(J4^2)+(K4^2))^0.5)</f>
+        <v>2.6302060755765886E-2</v>
+      </c>
+      <c r="M4">
+        <f>((L4/H4)*100)</f>
+        <v>5.004197251858046</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -574,11 +1644,11 @@
         <v>0.622</v>
       </c>
       <c r="H5">
-        <f>((C5+D5+E5+F5+G5)/5)</f>
+        <f t="shared" si="0"/>
         <v>0.62219999999999998</v>
       </c>
       <c r="I5">
-        <f>((H5/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>3.1109999999999999E-2</v>
       </c>
       <c r="J5">
@@ -588,8 +1658,16 @@
         <f>((C5-D5)/5)</f>
         <v>2.0000000000000017E-4</v>
       </c>
+      <c r="L5">
+        <f>(((I5^2)+(J5^2)+(K5^2))^0.5)</f>
+        <v>3.112671039477188E-2</v>
+      </c>
+      <c r="M5">
+        <f>((L5/H5)*100)</f>
+        <v>5.0026856950774485</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -612,11 +1690,11 @@
         <v>0.749</v>
       </c>
       <c r="H6">
-        <f>((C6+D6+E6+F6+G6)/5)</f>
+        <f t="shared" si="0"/>
         <v>0.74980000000000002</v>
       </c>
       <c r="I6">
-        <f>((H6/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>3.7490000000000002E-2</v>
       </c>
       <c r="J6">
@@ -626,8 +1704,16 @@
         <f>((C6-D6)/5)</f>
         <v>6.0000000000000049E-4</v>
       </c>
+      <c r="L6">
+        <f>(((I6^2)+(J6^2)+(K6^2))^0.5)</f>
+        <v>3.7508133784553983E-2</v>
+      </c>
+      <c r="M6">
+        <f>((L6/H6)*100)</f>
+        <v>5.0024184828692961</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -650,11 +1736,11 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="H7">
-        <f>((C7+D7+E7+F7+G7)/5)</f>
+        <f t="shared" si="0"/>
         <v>0.91780000000000006</v>
       </c>
       <c r="I7">
-        <f>((H7/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>4.589E-2</v>
       </c>
       <c r="J7">
@@ -664,8 +1750,16 @@
         <f>((C7-F7)/5)</f>
         <v>1.0000000000000009E-3</v>
       </c>
+      <c r="L7">
+        <f>(((I7^2)+(J7^2)+(K7^2))^0.5)</f>
+        <v>4.5911786068503151E-2</v>
+      </c>
+      <c r="M7">
+        <f>((L7/H7)*100)</f>
+        <v>5.0023737272284974</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -688,11 +1782,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H8">
-        <f>((C8+D8+E8+F8+G8)/5)</f>
+        <f t="shared" si="0"/>
         <v>1.1506000000000001</v>
       </c>
       <c r="I8">
-        <f>((H8/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>5.7530000000000005E-2</v>
       </c>
       <c r="J8">
@@ -702,8 +1796,16 @@
         <f>((C8-E8)/5)</f>
         <v>4.0000000000000034E-4</v>
       </c>
+      <c r="L8">
+        <f>(((I8^2)+(J8^2)+(K8^2))^0.5)</f>
+        <v>5.7540080813290491E-2</v>
+      </c>
+      <c r="M8">
+        <f>((L8/H8)*100)</f>
+        <v>5.0008761353459485</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -726,11 +1828,11 @@
         <v>1.5289999999999999</v>
       </c>
       <c r="H9">
-        <f>((C9+D9+E9+F9+G9)/5)</f>
+        <f t="shared" si="0"/>
         <v>1.5291999999999999</v>
       </c>
       <c r="I9">
-        <f>((H9/100) * 5)</f>
+        <f t="shared" si="1"/>
         <v>7.6459999999999986E-2</v>
       </c>
       <c r="J9">
@@ -740,15 +1842,29 @@
         <f>((C9-F9)/5)</f>
         <v>8.0000000000000069E-4</v>
       </c>
+      <c r="L9">
+        <f>(((I9^2)+(J9^2)+(K9^2))^0.5)</f>
+        <v>7.6470723809834551E-2</v>
+      </c>
+      <c r="M9">
+        <f>((L9/H9)*100)</f>
+        <v>5.0007012692803139</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -764,10 +1880,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
@@ -781,13 +1900,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>